--- a/xlsx/一院制_intext.xlsx
+++ b/xlsx/一院制_intext.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="377">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="367">
   <si>
     <t>一院制</t>
   </si>
@@ -26,22 +26,22 @@
     <t>https://zh.wikipedia.org/wiki/%E7%AB%8B%E6%B3%95%E6%A9%9F%E6%A7%8B</t>
   </si>
   <si>
-    <t>立法機構</t>
-  </si>
-  <si>
-    <t>政策_政策_美國_一院制</t>
+    <t>立法机构</t>
+  </si>
+  <si>
+    <t>政策_政策_美国_一院制</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%AD%B0%E9%99%A2</t>
   </si>
   <si>
-    <t>議院</t>
+    <t>议院</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%85%A9%E9%99%A2%E5%88%B6</t>
   </si>
   <si>
-    <t>兩院制</t>
+    <t>两院制</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%89%E9%99%A2%E5%88%B6</t>
@@ -65,43 +65,43 @@
     <t>https://zh.wikipedia.org/wiki/%E4%B8%8A%E8%AD%B0%E9%99%A2</t>
   </si>
   <si>
-    <t>上議院</t>
+    <t>上议院</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8F%83%E8%AD%B0%E9%99%A2</t>
   </si>
   <si>
-    <t>參議院</t>
+    <t>参议院</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%8B%E8%AD%B0%E9%99%A2</t>
   </si>
   <si>
-    <t>下議院</t>
+    <t>下议院</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%9C%BE%E8%AD%B0%E9%99%A2</t>
   </si>
   <si>
-    <t>眾議院</t>
+    <t>众议院</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%AD%B0%E6%9C%83</t>
   </si>
   <si>
-    <t>議會</t>
+    <t>议会</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%AD%B0%E6%9C%83%E5%88%B6</t>
   </si>
   <si>
-    <t>議會制</t>
+    <t>议会制</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%AD%B0%E6%9C%83%E9%BB%A8%E5%9C%98</t>
   </si>
   <si>
-    <t>議會黨團</t>
+    <t>议会党团</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9B%BD%E4%BC%9A%E8%AE%AE%E5%91%98</t>
@@ -113,37 +113,37 @@
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E5%AE%B6%E8%AD%B0%E6%9C%83</t>
   </si>
   <si>
-    <t>國家議會</t>
+    <t>国家议会</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%AD%B0%E6%9C%83%E7%A8%8B%E5%BA%8F</t>
   </si>
   <si>
-    <t>議會程序</t>
+    <t>议会程序</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A7%94%E5%93%A1%E6%9C%83</t>
   </si>
   <si>
-    <t>委員會</t>
+    <t>委员会</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B3%95%E5%AE%9A%E4%BA%BA%E6%95%B8</t>
   </si>
   <si>
-    <t>法定人數</t>
+    <t>法定人数</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%AD%B0%E6%A1%88</t>
   </si>
   <si>
-    <t>議案</t>
+    <t>议案</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%8D%E4%BF%A1%E4%BB%BB%E5%8B%95%E8%AD%B0</t>
   </si>
   <si>
-    <t>不信任動議</t>
+    <t>不信任动议</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%94%BF%E6%B2%BB%E4%BC%9A%E8%AE%AE</t>
@@ -155,27 +155,24 @@
     <t>https://zh.wikipedia.org/wiki/%E5%B8%82%E8%AD%B0%E6%9C%83</t>
   </si>
   <si>
-    <t>市議會</t>
+    <t>市议会</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%90%84%E5%9C%8B%E7%AB%8B%E6%B3%95%E6%A9%9F%E6%A7%8B%E5%88%97%E8%A1%A8</t>
   </si>
   <si>
-    <t>各國立法機構列表</t>
+    <t>各国立法机构列表</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/Template_talk:%E7%AB%8B%E6%B3%95%E6%A9%9F%E6%A7%8B</t>
   </si>
   <si>
-    <t>Template talk-立法機構</t>
+    <t>Template talk-立法机构</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%AE%AE%E4%BC%9A</t>
   </si>
   <si>
-    <t>议会</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E5%88%B6%E5%BA%A6</t>
   </si>
   <si>
@@ -197,7 +194,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%85%A8%E5%9C%8B%E4%BA%BA%E6%B0%91%E4%BB%A3%E8%A1%A8%E5%A4%A7%E6%9C%83</t>
   </si>
   <si>
-    <t>全國人民代表大會</t>
+    <t>全国人民代表大会</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%A4%BE%E4%BC%9A%E4%B8%BB%E4%B9%89%E5%85%B1%E5%92%8C%E5%9B%BD</t>
@@ -221,13 +218,13 @@
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E8%8F%AF%E6%B0%91%E5%9C%8B</t>
   </si>
   <si>
-    <t>中華民國</t>
+    <t>中华民国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E8%8F%AF%E6%B0%91%E5%9C%8B%E7%AB%8B%E6%B3%95%E9%99%A2</t>
   </si>
   <si>
-    <t>中華民國立法院</t>
+    <t>中华民国立法院</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%85%B1%E5%92%8C%E5%88%B6</t>
@@ -263,13 +260,13 @@
     <t>https://zh.wikipedia.org/wiki/%E9%A6%99%E6%B8%AF%E7%AB%8B%E6%B3%95%E6%9C%83</t>
   </si>
   <si>
-    <t>香港立法會</t>
+    <t>香港立法会</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%89%B9%E5%88%A5%E8%A1%8C%E6%94%BF%E5%8D%80</t>
   </si>
   <si>
-    <t>特別行政區</t>
+    <t>特别行政区</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%80%E5%9B%BD%E4%B8%A4%E5%88%B6</t>
@@ -281,19 +278,16 @@
     <t>https://zh.wikipedia.org/wiki/%E7%89%B9%E5%88%AB%E8%A1%8C%E6%94%BF%E5%8C%BA</t>
   </si>
   <si>
-    <t>特别行政区</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E6%BE%B3%E9%96%80</t>
   </si>
   <si>
-    <t>澳門</t>
+    <t>澳门</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%BE%B3%E9%96%80%E7%AB%8B%E6%B3%95%E6%9C%83</t>
   </si>
   <si>
-    <t>澳門立法會</t>
+    <t>澳门立法会</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%9C%9D%E9%B2%9C%E6%B0%91%E4%B8%BB%E4%B8%BB%E4%B9%89%E4%BA%BA%E6%B0%91%E5%85%B1%E5%92%8C%E5%9B%BD</t>
@@ -311,7 +305,7 @@
     <t>https://zh.wikipedia.org/wiki/%E4%B8%80%E9%BB%A8%E5%9F%B7%E6%94%BF</t>
   </si>
   <si>
-    <t>一黨執政</t>
+    <t>一党执政</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%9C%80%E9%AB%98%E4%BA%BA%E6%B0%91%E4%BC%9A%E8%AE%AE%E5%B8%B8%E4%BB%BB%E5%A7%94%E5%91%98%E4%BC%9A%E5%A7%94%E5%91%98%E9%95%BF</t>
@@ -341,7 +335,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A4%A7%E9%9F%93%E6%B0%91%E5%9C%8B%E5%9C%8B%E6%9C%83</t>
   </si>
   <si>
-    <t>大韓民國國會</t>
+    <t>大韩民国国会</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%96%B0%E5%8A%A0%E5%9D%A1</t>
@@ -353,7 +347,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%96%B0%E5%8A%A0%E5%9D%A1%E5%9C%8B%E6%9C%83</t>
   </si>
   <si>
-    <t>新加坡國會</t>
+    <t>新加坡国会</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%AE%AE%E4%BC%9A%E5%85%B1%E5%92%8C%E5%88%B6</t>
@@ -365,7 +359,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%B8%8C%E8%87%98</t>
   </si>
   <si>
-    <t>希臘</t>
+    <t>希腊</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B8%8C%E8%85%8A%E5%9B%BD%E4%BC%9A</t>
@@ -377,19 +371,19 @@
     <t>https://zh.wikipedia.org/wiki/%E4%B8%B9%E9%BA%A5</t>
   </si>
   <si>
-    <t>丹麥</t>
+    <t>丹麦</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%B9%E9%BA%A5%E8%AD%B0%E6%9C%83</t>
   </si>
   <si>
-    <t>丹麥議會</t>
+    <t>丹麦议会</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%90%9B%E4%B8%BB%E7%AB%8B%E6%86%B2%E5%88%B6</t>
   </si>
   <si>
-    <t>君主立憲制</t>
+    <t>君主立宪制</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%91%9E%E5%85%B8</t>
@@ -401,7 +395,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%91%9E%E5%85%B8%E5%9C%8B%E6%9C%83</t>
   </si>
   <si>
-    <t>瑞典國會</t>
+    <t>瑞典国会</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%8A%AC%E5%85%B0</t>
@@ -419,13 +413,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%85%B1%E5%92%8C%E5%9C%8B</t>
   </si>
   <si>
-    <t>共和國</t>
+    <t>共和国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%AA%81%E5%B0%BC%E8%A5%BF%E4%BA%9E</t>
   </si>
   <si>
-    <t>突尼西亞</t>
+    <t>突尼西亚</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%AA%81%E5%B0%BC%E6%96%AF%E8%AE%AE%E4%BC%9A</t>
@@ -449,9 +443,6 @@
     <t>https://zh.wikipedia.org/wiki/%E5%96%AE%E4%B8%80%E5%88%B6</t>
   </si>
   <si>
-    <t>單一制</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E7%AC%AC%E4%BA%8C%E6%AC%A1%E5%88%A9%E6%AF%94%E4%BA%9A%E5%86%85%E6%88%98</t>
   </si>
   <si>
@@ -467,13 +458,13 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B8%BD%E7%B5%B1%E5%A7%94%E5%93%A1%E6%9C%83_(%E5%88%A9%E6%AF%94%E4%BA%9E)</t>
   </si>
   <si>
-    <t>總統委員會 (利比亞)</t>
+    <t>总统委员会 (利比亚)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B0%91%E6%97%8F%E5%9C%98%E7%B5%90%E6%94%BF%E5%BA%9C</t>
   </si>
   <si>
-    <t>民族團結政府</t>
+    <t>民族团结政府</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%91%A1%E8%90%84%E7%89%99</t>
@@ -491,7 +482,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%96%B0%E8%A5%BF%E8%98%AD</t>
   </si>
   <si>
-    <t>新西蘭</t>
+    <t>新西兰</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%96%B0%E8%A5%BF%E5%85%B0%E8%AE%AE%E4%BC%9A</t>
@@ -503,7 +494,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A7%94%E5%85%A7%E7%91%9E%E6%8B%89</t>
   </si>
   <si>
-    <t>委內瑞拉</t>
+    <t>委内瑞拉</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A7%94%E5%86%85%E7%91%9E%E6%8B%89%E5%9B%BD%E4%BC%9A</t>
@@ -515,7 +506,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B8%BD%E7%B5%B1%E5%88%B6</t>
   </si>
   <si>
-    <t>總統制</t>
+    <t>总统制</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%81%94%E9%82%A6%E5%88%B6</t>
@@ -539,13 +530,13 @@
     <t>https://zh.wikipedia.org/wiki/%E9%9B%99%E9%A6%96%E9%95%B7%E5%88%B6</t>
   </si>
   <si>
-    <t>雙首長制</t>
+    <t>双首长制</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%83%8F%E5%85%8B%E8%98%AD</t>
   </si>
   <si>
-    <t>烏克蘭</t>
+    <t>乌克兰</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B9%8C%E5%85%8B%E5%85%B0%E6%9C%80%E9%AB%98%E6%8B%89%E8%BE%BE</t>
@@ -569,13 +560,13 @@
     <t>https://zh.wikipedia.org/wiki/%E7%A4%BE%E6%9C%83%E4%B8%BB%E7%BE%A9%E5%85%B1%E5%92%8C%E5%88%B6</t>
   </si>
   <si>
-    <t>社會主義共和制</t>
+    <t>社会主义共和制</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%A6%AC%E5%85%B6%E9%A0%93%E5%85%B1%E5%92%8C%E5%9C%8B</t>
   </si>
   <si>
-    <t>馬其頓共和國</t>
+    <t>马其顿共和国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%A9%AC%E5%85%B6%E9%A1%BF%E5%85%B1%E5%92%8C%E5%9B%BD%E8%AE%AE%E4%BC%9A</t>
@@ -611,9 +602,6 @@
     <t>https://zh.wikipedia.org/wiki/%E6%80%BB%E7%BB%9F%E5%88%B6</t>
   </si>
   <si>
-    <t>总统制</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8C%97%E7%88%B1%E5%B0%94%E5%85%B0</t>
   </si>
   <si>
@@ -623,13 +611,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8C%97%E6%84%9B%E7%88%BE%E8%98%AD%E8%AD%B0%E6%9C%83</t>
   </si>
   <si>
-    <t>北愛爾蘭議會</t>
+    <t>北爱尔兰议会</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%8B%B1%E5%9C%8B%E7%9A%84%E6%A7%8B%E6%88%90%E5%9C%8B</t>
   </si>
   <si>
-    <t>英國的構成國</t>
+    <t>英国的构成国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%92%99%E5%8F%A4%E5%9B%BD</t>
@@ -641,7 +629,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%92%99%E5%8F%A4%E5%9C%8B%E5%A4%A7%E5%91%BC%E6%8B%89%E7%88%BE</t>
   </si>
   <si>
-    <t>蒙古國大呼拉爾</t>
+    <t>蒙古国大呼拉尔</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%AE%89%E5%93%A5%E6%8B%89</t>
@@ -659,7 +647,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%B0%9A%E6%AF%94%E4%BA%9E</t>
   </si>
   <si>
-    <t>尚比亞</t>
+    <t>尚比亚</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%B5%9E%E6%AF%94%E4%BA%9A%E8%AE%AE%E4%BC%9A</t>
@@ -701,7 +689,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%90%89%E7%88%BE%E5%90%89%E6%96%AF</t>
   </si>
   <si>
-    <t>吉爾吉斯</t>
+    <t>吉尔吉斯</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%9C%80%E9%AB%98%E8%AE%AE%E4%BC%9A_(%E5%90%89%E5%B0%94%E5%90%89%E6%96%AF%E6%96%AF%E5%9D%A6)</t>
@@ -713,9 +701,6 @@
     <t>https://zh.wikipedia.org/wiki/%E8%AE%AE%E4%BC%9A%E5%88%B6</t>
   </si>
   <si>
-    <t>议会制</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9F%83%E5%8F%8A</t>
   </si>
   <si>
@@ -737,19 +722,16 @@
     <t>https://zh.wikipedia.org/wiki/%E5%85%B1%E5%92%8C%E5%9B%BD</t>
   </si>
   <si>
-    <t>共和国</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E8%91%89%E9%96%80</t>
   </si>
   <si>
-    <t>葉門</t>
+    <t>叶门</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%9C%BE%E8%AD%B0%E9%99%A2_(%E4%B9%9F%E9%96%80)</t>
   </si>
   <si>
-    <t>眾議院 (也門)</t>
+    <t>众议院 (也门)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8F%99%E5%88%A9%E4%BA%9A</t>
@@ -767,9 +749,6 @@
     <t>https://zh.wikipedia.org/wiki/%E4%B8%80%E5%85%9A%E6%89%A7%E6%94%BF</t>
   </si>
   <si>
-    <t>一党执政</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E5%AD%9F%E5%8A%A0%E6%8B%89%E5%9B%BD</t>
   </si>
   <si>
@@ -779,13 +758,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E6%B0%91%E8%AD%B0%E6%9C%83_(%E5%AD%9F%E5%8A%A0%E6%8B%89%E5%9C%8B)</t>
   </si>
   <si>
-    <t>國民議會 (孟加拉國)</t>
+    <t>国民议会 (孟加拉国)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BA%9E%E7%BE%8E%E5%B0%BC%E4%BA%9E</t>
   </si>
   <si>
-    <t>亞美尼亞</t>
+    <t>亚美尼亚</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9B%BD%E6%B0%91%E8%AE%AE%E4%BC%9A_(%E4%BA%9A%E7%BE%8E%E5%B0%BC%E4%BA%9A)</t>
@@ -809,7 +788,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%86%B0%E5%B3%B6</t>
   </si>
   <si>
-    <t>冰島</t>
+    <t>冰岛</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%86%B0%E5%B2%9B%E8%AE%AE%E4%BC%9A</t>
@@ -839,15 +818,12 @@
     <t>https://zh.wikipedia.org/wiki/%E6%8C%AA%E5%A8%81%E8%AD%B0%E6%9C%83</t>
   </si>
   <si>
-    <t>挪威議會</t>
+    <t>挪威议会</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%90%9B%E4%B8%BB%E7%AB%8B%E5%AE%AA%E5%88%B6</t>
   </si>
   <si>
-    <t>君主立宪制</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E8%80%81%E6%8C%9D</t>
   </si>
   <si>
@@ -863,9 +839,6 @@
     <t>https://zh.wikipedia.org/wiki/%E7%A4%BE%E4%BC%9A%E4%B8%BB%E4%B9%89%E5%85%B1%E5%92%8C%E5%88%B6</t>
   </si>
   <si>
-    <t>社会主义共和制</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E8%8B%8F%E9%87%8C%E5%8D%97</t>
   </si>
   <si>
@@ -905,7 +878,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%99%BD%E4%BF%84%E7%BE%85%E6%96%AF</t>
   </si>
   <si>
-    <t>白俄羅斯</t>
+    <t>白俄罗斯</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%99%BD%E4%BF%84%E7%BD%97%E6%96%AF%E5%9B%BD%E6%B0%91%E8%AE%AE%E4%BC%9A</t>
@@ -917,7 +890,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%A6%AC%E9%87%8C%E5%85%B1%E5%92%8C%E5%9C%8B</t>
   </si>
   <si>
-    <t>馬里共和國</t>
+    <t>马里共和国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9B%BD%E6%B0%91%E8%AE%AE%E4%BC%9A_(%E9%A9%AC%E9%87%8C)</t>
@@ -977,9 +950,6 @@
     <t>https://zh.wikipedia.org/wiki/%E8%81%AF%E9%82%A6%E5%88%B6</t>
   </si>
   <si>
-    <t>聯邦制</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8D%B1%E5%9C%B0%E9%A9%AC%E6%8B%89</t>
   </si>
   <si>
@@ -995,7 +965,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8C%97%E8%B3%BD%E6%99%AE%E5%8B%92%E6%96%AF%E5%9C%9F%E8%80%B3%E5%85%B6%E5%85%B1%E5%92%8C%E5%9C%8B</t>
   </si>
   <si>
-    <t>北賽普勒斯土耳其共和國</t>
+    <t>北赛普勒斯土耳其共和国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%85%B1%E5%92%8C%E5%9B%BD%E8%AE%AE%E4%BC%9A_(%E5%8C%97%E5%A1%9E%E6%B5%A6%E8%B7%AF%E6%96%AF)</t>
@@ -1007,7 +977,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%B3%BD%E6%99%AE%E5%8B%92%E6%96%AF</t>
   </si>
   <si>
-    <t>賽普勒斯</t>
+    <t>赛普勒斯</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BC%97%E8%AE%AE%E9%99%A2_(%E5%A1%9E%E6%B5%A6%E8%B7%AF%E6%96%AF)</t>
@@ -1037,7 +1007,7 @@
     <t>https://zh.wikipedia.org/wiki/%E4%BC%8A%E6%9C%97%E8%AD%B0%E6%9C%83</t>
   </si>
   <si>
-    <t>伊朗議會</t>
+    <t>伊朗议会</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%AB%8B%E9%99%B6%E5%AE%9B</t>
@@ -1055,7 +1025,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%8B%89%E8%84%AB%E7%B6%AD%E4%BA%9E</t>
   </si>
   <si>
-    <t>拉脫維亞</t>
+    <t>拉脱维亚</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%8B%89%E8%84%B1%E7%BB%B4%E4%BA%9A%E8%AE%AE%E4%BC%9A</t>
@@ -1079,7 +1049,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%A6%AC%E6%8B%89%E5%A8%81</t>
   </si>
   <si>
-    <t>馬拉威</t>
+    <t>马拉威</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%A9%AC%E6%8B%89%E7%BB%B4%E8%AE%AE%E4%BC%9A</t>
@@ -1091,13 +1061,13 @@
     <t>https://zh.wikipedia.org/wiki/%E6%96%AF%E9%87%8C%E8%98%AD%E5%8D%A1</t>
   </si>
   <si>
-    <t>斯里蘭卡</t>
+    <t>斯里兰卡</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%96%AF%E9%87%8C%E8%98%AD%E5%8D%A1%E8%AD%B0%E6%9C%83</t>
   </si>
   <si>
-    <t>斯里蘭卡議會</t>
+    <t>斯里兰卡议会</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%A0%BC%E9%B2%81%E5%90%89%E4%BA%9A</t>
@@ -1127,25 +1097,25 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A4%9A%E6%95%B8%E6%B1%BA</t>
   </si>
   <si>
-    <t>多數決</t>
+    <t>多数决</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%80%E9%BB%A8%E7%8D%A8%E5%A4%A7</t>
   </si>
   <si>
-    <t>一黨獨大</t>
+    <t>一党独大</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%8D%A8%E8%A3%81</t>
   </si>
   <si>
-    <t>獨裁</t>
+    <t>独裁</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%AD%B0%E5%93%A1</t>
   </si>
   <si>
-    <t>議員</t>
+    <t>议员</t>
   </si>
 </sst>
 </file>
@@ -2241,7 +2211,7 @@
         <v>51</v>
       </c>
       <c r="F26" t="s">
-        <v>52</v>
+        <v>24</v>
       </c>
       <c r="G26" t="n">
         <v>44</v>
@@ -2267,10 +2237,10 @@
         <v>26</v>
       </c>
       <c r="E27" t="s">
+        <v>52</v>
+      </c>
+      <c r="F27" t="s">
         <v>53</v>
-      </c>
-      <c r="F27" t="s">
-        <v>54</v>
       </c>
       <c r="G27" t="n">
         <v>5</v>
@@ -2296,10 +2266,10 @@
         <v>27</v>
       </c>
       <c r="E28" t="s">
+        <v>54</v>
+      </c>
+      <c r="F28" t="s">
         <v>55</v>
-      </c>
-      <c r="F28" t="s">
-        <v>56</v>
       </c>
       <c r="G28" t="n">
         <v>19</v>
@@ -2354,10 +2324,10 @@
         <v>29</v>
       </c>
       <c r="E30" t="s">
+        <v>56</v>
+      </c>
+      <c r="F30" t="s">
         <v>57</v>
-      </c>
-      <c r="F30" t="s">
-        <v>58</v>
       </c>
       <c r="G30" t="n">
         <v>3</v>
@@ -2383,10 +2353,10 @@
         <v>30</v>
       </c>
       <c r="E31" t="s">
+        <v>58</v>
+      </c>
+      <c r="F31" t="s">
         <v>59</v>
-      </c>
-      <c r="F31" t="s">
-        <v>60</v>
       </c>
       <c r="G31" t="n">
         <v>1</v>
@@ -2412,10 +2382,10 @@
         <v>31</v>
       </c>
       <c r="E32" t="s">
+        <v>60</v>
+      </c>
+      <c r="F32" t="s">
         <v>61</v>
-      </c>
-      <c r="F32" t="s">
-        <v>62</v>
       </c>
       <c r="G32" t="n">
         <v>1</v>
@@ -2441,10 +2411,10 @@
         <v>32</v>
       </c>
       <c r="E33" t="s">
+        <v>62</v>
+      </c>
+      <c r="F33" t="s">
         <v>63</v>
-      </c>
-      <c r="F33" t="s">
-        <v>64</v>
       </c>
       <c r="G33" t="n">
         <v>63</v>
@@ -2470,10 +2440,10 @@
         <v>33</v>
       </c>
       <c r="E34" t="s">
+        <v>64</v>
+      </c>
+      <c r="F34" t="s">
         <v>65</v>
-      </c>
-      <c r="F34" t="s">
-        <v>66</v>
       </c>
       <c r="G34" t="n">
         <v>1</v>
@@ -2499,10 +2469,10 @@
         <v>34</v>
       </c>
       <c r="E35" t="s">
+        <v>66</v>
+      </c>
+      <c r="F35" t="s">
         <v>67</v>
-      </c>
-      <c r="F35" t="s">
-        <v>68</v>
       </c>
       <c r="G35" t="n">
         <v>2</v>
@@ -2528,10 +2498,10 @@
         <v>35</v>
       </c>
       <c r="E36" t="s">
+        <v>68</v>
+      </c>
+      <c r="F36" t="s">
         <v>69</v>
-      </c>
-      <c r="F36" t="s">
-        <v>70</v>
       </c>
       <c r="G36" t="n">
         <v>1</v>
@@ -2557,10 +2527,10 @@
         <v>36</v>
       </c>
       <c r="E37" t="s">
+        <v>70</v>
+      </c>
+      <c r="F37" t="s">
         <v>71</v>
-      </c>
-      <c r="F37" t="s">
-        <v>72</v>
       </c>
       <c r="G37" t="n">
         <v>13</v>
@@ -2586,10 +2556,10 @@
         <v>37</v>
       </c>
       <c r="E38" t="s">
+        <v>72</v>
+      </c>
+      <c r="F38" t="s">
         <v>73</v>
-      </c>
-      <c r="F38" t="s">
-        <v>74</v>
       </c>
       <c r="G38" t="n">
         <v>3</v>
@@ -2615,10 +2585,10 @@
         <v>38</v>
       </c>
       <c r="E39" t="s">
+        <v>74</v>
+      </c>
+      <c r="F39" t="s">
         <v>75</v>
-      </c>
-      <c r="F39" t="s">
-        <v>76</v>
       </c>
       <c r="G39" t="n">
         <v>2</v>
@@ -2644,10 +2614,10 @@
         <v>39</v>
       </c>
       <c r="E40" t="s">
+        <v>76</v>
+      </c>
+      <c r="F40" t="s">
         <v>77</v>
-      </c>
-      <c r="F40" t="s">
-        <v>78</v>
       </c>
       <c r="G40" t="n">
         <v>1</v>
@@ -2673,10 +2643,10 @@
         <v>40</v>
       </c>
       <c r="E41" t="s">
+        <v>78</v>
+      </c>
+      <c r="F41" t="s">
         <v>79</v>
-      </c>
-      <c r="F41" t="s">
-        <v>80</v>
       </c>
       <c r="G41" t="n">
         <v>4</v>
@@ -2702,10 +2672,10 @@
         <v>41</v>
       </c>
       <c r="E42" t="s">
+        <v>80</v>
+      </c>
+      <c r="F42" t="s">
         <v>81</v>
-      </c>
-      <c r="F42" t="s">
-        <v>82</v>
       </c>
       <c r="G42" t="n">
         <v>1</v>
@@ -2731,10 +2701,10 @@
         <v>42</v>
       </c>
       <c r="E43" t="s">
+        <v>82</v>
+      </c>
+      <c r="F43" t="s">
         <v>83</v>
-      </c>
-      <c r="F43" t="s">
-        <v>84</v>
       </c>
       <c r="G43" t="n">
         <v>2</v>
@@ -2760,10 +2730,10 @@
         <v>43</v>
       </c>
       <c r="E44" t="s">
+        <v>84</v>
+      </c>
+      <c r="F44" t="s">
         <v>85</v>
-      </c>
-      <c r="F44" t="s">
-        <v>86</v>
       </c>
       <c r="G44" t="n">
         <v>2</v>
@@ -2789,10 +2759,10 @@
         <v>44</v>
       </c>
       <c r="E45" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="F45" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="G45" t="n">
         <v>4</v>
@@ -2818,10 +2788,10 @@
         <v>45</v>
       </c>
       <c r="E46" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="F46" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="G46" t="n">
         <v>3</v>
@@ -2847,10 +2817,10 @@
         <v>46</v>
       </c>
       <c r="E47" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="F47" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="G47" t="n">
         <v>1</v>
@@ -2876,10 +2846,10 @@
         <v>47</v>
       </c>
       <c r="E48" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="F48" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="G48" t="n">
         <v>2</v>
@@ -2905,10 +2875,10 @@
         <v>48</v>
       </c>
       <c r="E49" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="F49" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="G49" t="n">
         <v>1</v>
@@ -2934,10 +2904,10 @@
         <v>49</v>
       </c>
       <c r="E50" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="F50" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="G50" t="n">
         <v>2</v>
@@ -2963,10 +2933,10 @@
         <v>50</v>
       </c>
       <c r="E51" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="F51" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="G51" t="n">
         <v>1</v>
@@ -2992,10 +2962,10 @@
         <v>51</v>
       </c>
       <c r="E52" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="F52" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="G52" t="n">
         <v>1</v>
@@ -3021,10 +2991,10 @@
         <v>52</v>
       </c>
       <c r="E53" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="F53" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="G53" t="n">
         <v>2</v>
@@ -3050,10 +3020,10 @@
         <v>53</v>
       </c>
       <c r="E54" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="F54" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="G54" t="n">
         <v>3</v>
@@ -3079,10 +3049,10 @@
         <v>54</v>
       </c>
       <c r="E55" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="F55" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="G55" t="n">
         <v>1</v>
@@ -3108,10 +3078,10 @@
         <v>55</v>
       </c>
       <c r="E56" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="F56" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="G56" t="n">
         <v>2</v>
@@ -3137,10 +3107,10 @@
         <v>56</v>
       </c>
       <c r="E57" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="F57" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="G57" t="n">
         <v>1</v>
@@ -3166,10 +3136,10 @@
         <v>57</v>
       </c>
       <c r="E58" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="F58" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="G58" t="n">
         <v>2</v>
@@ -3195,10 +3165,10 @@
         <v>58</v>
       </c>
       <c r="E59" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="F59" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="G59" t="n">
         <v>2</v>
@@ -3224,10 +3194,10 @@
         <v>59</v>
       </c>
       <c r="E60" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="F60" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="G60" t="n">
         <v>1</v>
@@ -3253,10 +3223,10 @@
         <v>60</v>
       </c>
       <c r="E61" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="F61" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="G61" t="n">
         <v>2</v>
@@ -3282,10 +3252,10 @@
         <v>61</v>
       </c>
       <c r="E62" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="F62" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="G62" t="n">
         <v>1</v>
@@ -3311,10 +3281,10 @@
         <v>62</v>
       </c>
       <c r="E63" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="F63" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="G63" t="n">
         <v>3</v>
@@ -3340,10 +3310,10 @@
         <v>63</v>
       </c>
       <c r="E64" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="F64" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="G64" t="n">
         <v>2</v>
@@ -3369,10 +3339,10 @@
         <v>64</v>
       </c>
       <c r="E65" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="F65" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="G65" t="n">
         <v>1</v>
@@ -3398,10 +3368,10 @@
         <v>65</v>
       </c>
       <c r="E66" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="F66" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="G66" t="n">
         <v>1</v>
@@ -3427,10 +3397,10 @@
         <v>66</v>
       </c>
       <c r="E67" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="F67" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="G67" t="n">
         <v>1</v>
@@ -3456,10 +3426,10 @@
         <v>67</v>
       </c>
       <c r="E68" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="F68" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="G68" t="n">
         <v>4</v>
@@ -3485,10 +3455,10 @@
         <v>68</v>
       </c>
       <c r="E69" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="F69" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="G69" t="n">
         <v>1</v>
@@ -3514,10 +3484,10 @@
         <v>69</v>
       </c>
       <c r="E70" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="F70" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="G70" t="n">
         <v>1</v>
@@ -3543,10 +3513,10 @@
         <v>70</v>
       </c>
       <c r="E71" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="F71" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="G71" t="n">
         <v>2</v>
@@ -3572,10 +3542,10 @@
         <v>71</v>
       </c>
       <c r="E72" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="F72" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="G72" t="n">
         <v>1</v>
@@ -3601,10 +3571,10 @@
         <v>72</v>
       </c>
       <c r="E73" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="F73" t="s">
-        <v>144</v>
+        <v>63</v>
       </c>
       <c r="G73" t="n">
         <v>1</v>
@@ -3630,10 +3600,10 @@
         <v>73</v>
       </c>
       <c r="E74" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="F74" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="G74" t="n">
         <v>1</v>
@@ -3659,10 +3629,10 @@
         <v>74</v>
       </c>
       <c r="E75" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="F75" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="G75" t="n">
         <v>1</v>
@@ -3688,10 +3658,10 @@
         <v>75</v>
       </c>
       <c r="E76" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="F76" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="G76" t="n">
         <v>1</v>
@@ -3717,10 +3687,10 @@
         <v>76</v>
       </c>
       <c r="E77" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="F77" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="G77" t="n">
         <v>1</v>
@@ -3746,10 +3716,10 @@
         <v>77</v>
       </c>
       <c r="E78" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="F78" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="G78" t="n">
         <v>1</v>
@@ -3775,10 +3745,10 @@
         <v>78</v>
       </c>
       <c r="E79" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="F79" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="G79" t="n">
         <v>2</v>
@@ -3804,10 +3774,10 @@
         <v>79</v>
       </c>
       <c r="E80" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="F80" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="G80" t="n">
         <v>1</v>
@@ -3833,10 +3803,10 @@
         <v>80</v>
       </c>
       <c r="E81" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="F81" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="G81" t="n">
         <v>2</v>
@@ -3862,10 +3832,10 @@
         <v>81</v>
       </c>
       <c r="E82" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="F82" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="G82" t="n">
         <v>1</v>
@@ -3891,10 +3861,10 @@
         <v>82</v>
       </c>
       <c r="E83" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="F83" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="G83" t="n">
         <v>2</v>
@@ -3920,10 +3890,10 @@
         <v>83</v>
       </c>
       <c r="E84" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="F84" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="G84" t="n">
         <v>1</v>
@@ -3949,10 +3919,10 @@
         <v>84</v>
       </c>
       <c r="E85" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="F85" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="G85" t="n">
         <v>5</v>
@@ -3978,10 +3948,10 @@
         <v>85</v>
       </c>
       <c r="E86" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="F86" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="G86" t="n">
         <v>3</v>
@@ -4007,10 +3977,10 @@
         <v>86</v>
       </c>
       <c r="E87" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="F87" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="G87" t="n">
         <v>2</v>
@@ -4036,10 +4006,10 @@
         <v>87</v>
       </c>
       <c r="E88" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="F88" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="G88" t="n">
         <v>1</v>
@@ -4065,10 +4035,10 @@
         <v>88</v>
       </c>
       <c r="E89" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="F89" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="G89" t="n">
         <v>1</v>
@@ -4094,10 +4064,10 @@
         <v>89</v>
       </c>
       <c r="E90" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="F90" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="G90" t="n">
         <v>2</v>
@@ -4123,10 +4093,10 @@
         <v>90</v>
       </c>
       <c r="E91" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="F91" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="G91" t="n">
         <v>1</v>
@@ -4152,10 +4122,10 @@
         <v>91</v>
       </c>
       <c r="E92" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="F92" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="G92" t="n">
         <v>1</v>
@@ -4181,10 +4151,10 @@
         <v>92</v>
       </c>
       <c r="E93" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="F93" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="G93" t="n">
         <v>1</v>
@@ -4210,10 +4180,10 @@
         <v>93</v>
       </c>
       <c r="E94" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="F94" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="G94" t="n">
         <v>1</v>
@@ -4239,10 +4209,10 @@
         <v>94</v>
       </c>
       <c r="E95" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="F95" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="G95" t="n">
         <v>2</v>
@@ -4268,10 +4238,10 @@
         <v>95</v>
       </c>
       <c r="E96" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="F96" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="G96" t="n">
         <v>1</v>
@@ -4297,10 +4267,10 @@
         <v>96</v>
       </c>
       <c r="E97" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="F97" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="G97" t="n">
         <v>1</v>
@@ -4326,10 +4296,10 @@
         <v>97</v>
       </c>
       <c r="E98" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="F98" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="G98" t="n">
         <v>2</v>
@@ -4355,10 +4325,10 @@
         <v>98</v>
       </c>
       <c r="E99" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="F99" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="G99" t="n">
         <v>1</v>
@@ -4384,10 +4354,10 @@
         <v>99</v>
       </c>
       <c r="E100" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="F100" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="G100" t="n">
         <v>1</v>
@@ -4413,10 +4383,10 @@
         <v>100</v>
       </c>
       <c r="E101" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="F101" t="s">
-        <v>198</v>
+        <v>163</v>
       </c>
       <c r="G101" t="n">
         <v>14</v>
@@ -4442,10 +4412,10 @@
         <v>101</v>
       </c>
       <c r="E102" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="F102" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="G102" t="n">
         <v>1</v>
@@ -4471,10 +4441,10 @@
         <v>102</v>
       </c>
       <c r="E103" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="F103" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="G103" t="n">
         <v>1</v>
@@ -4500,10 +4470,10 @@
         <v>103</v>
       </c>
       <c r="E104" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="F104" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="G104" t="n">
         <v>1</v>
@@ -4529,10 +4499,10 @@
         <v>104</v>
       </c>
       <c r="E105" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="F105" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="G105" t="n">
         <v>2</v>
@@ -4558,10 +4528,10 @@
         <v>105</v>
       </c>
       <c r="E106" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="F106" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="G106" t="n">
         <v>1</v>
@@ -4587,10 +4557,10 @@
         <v>106</v>
       </c>
       <c r="E107" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="F107" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="G107" t="n">
         <v>2</v>
@@ -4616,10 +4586,10 @@
         <v>107</v>
       </c>
       <c r="E108" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="F108" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="G108" t="n">
         <v>1</v>
@@ -4645,10 +4615,10 @@
         <v>108</v>
       </c>
       <c r="E109" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="F109" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="G109" t="n">
         <v>1</v>
@@ -4674,10 +4644,10 @@
         <v>109</v>
       </c>
       <c r="E110" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
       <c r="F110" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="G110" t="n">
         <v>1</v>
@@ -4703,10 +4673,10 @@
         <v>110</v>
       </c>
       <c r="E111" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="F111" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="G111" t="n">
         <v>1</v>
@@ -4732,10 +4702,10 @@
         <v>111</v>
       </c>
       <c r="E112" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="F112" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="G112" t="n">
         <v>1</v>
@@ -4761,10 +4731,10 @@
         <v>112</v>
       </c>
       <c r="E113" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
       <c r="F113" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="G113" t="n">
         <v>2</v>
@@ -4790,10 +4760,10 @@
         <v>113</v>
       </c>
       <c r="E114" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="F114" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="G114" t="n">
         <v>1</v>
@@ -4819,10 +4789,10 @@
         <v>114</v>
       </c>
       <c r="E115" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="F115" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="G115" t="n">
         <v>1</v>
@@ -4848,10 +4818,10 @@
         <v>115</v>
       </c>
       <c r="E116" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="F116" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="G116" t="n">
         <v>2</v>
@@ -4877,10 +4847,10 @@
         <v>116</v>
       </c>
       <c r="E117" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="F117" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="G117" t="n">
         <v>1</v>
@@ -4906,10 +4876,10 @@
         <v>117</v>
       </c>
       <c r="E118" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="F118" t="s">
-        <v>232</v>
+        <v>26</v>
       </c>
       <c r="G118" t="n">
         <v>11</v>
@@ -4935,10 +4905,10 @@
         <v>118</v>
       </c>
       <c r="E119" t="s">
-        <v>233</v>
+        <v>228</v>
       </c>
       <c r="F119" t="s">
-        <v>234</v>
+        <v>229</v>
       </c>
       <c r="G119" t="n">
         <v>2</v>
@@ -4964,10 +4934,10 @@
         <v>119</v>
       </c>
       <c r="E120" t="s">
-        <v>235</v>
+        <v>230</v>
       </c>
       <c r="F120" t="s">
-        <v>236</v>
+        <v>231</v>
       </c>
       <c r="G120" t="n">
         <v>1</v>
@@ -4993,10 +4963,10 @@
         <v>120</v>
       </c>
       <c r="E121" t="s">
-        <v>237</v>
+        <v>232</v>
       </c>
       <c r="F121" t="s">
-        <v>238</v>
+        <v>233</v>
       </c>
       <c r="G121" t="n">
         <v>5</v>
@@ -5022,10 +4992,10 @@
         <v>121</v>
       </c>
       <c r="E122" t="s">
-        <v>239</v>
+        <v>234</v>
       </c>
       <c r="F122" t="s">
-        <v>240</v>
+        <v>132</v>
       </c>
       <c r="G122" t="n">
         <v>7</v>
@@ -5051,10 +5021,10 @@
         <v>122</v>
       </c>
       <c r="E123" t="s">
-        <v>241</v>
+        <v>235</v>
       </c>
       <c r="F123" t="s">
-        <v>242</v>
+        <v>236</v>
       </c>
       <c r="G123" t="n">
         <v>1</v>
@@ -5080,10 +5050,10 @@
         <v>123</v>
       </c>
       <c r="E124" t="s">
-        <v>243</v>
+        <v>237</v>
       </c>
       <c r="F124" t="s">
-        <v>244</v>
+        <v>238</v>
       </c>
       <c r="G124" t="n">
         <v>1</v>
@@ -5109,10 +5079,10 @@
         <v>124</v>
       </c>
       <c r="E125" t="s">
-        <v>245</v>
+        <v>239</v>
       </c>
       <c r="F125" t="s">
-        <v>246</v>
+        <v>240</v>
       </c>
       <c r="G125" t="n">
         <v>2</v>
@@ -5138,10 +5108,10 @@
         <v>125</v>
       </c>
       <c r="E126" t="s">
-        <v>247</v>
+        <v>241</v>
       </c>
       <c r="F126" t="s">
-        <v>248</v>
+        <v>242</v>
       </c>
       <c r="G126" t="n">
         <v>1</v>
@@ -5167,10 +5137,10 @@
         <v>126</v>
       </c>
       <c r="E127" t="s">
-        <v>249</v>
+        <v>243</v>
       </c>
       <c r="F127" t="s">
-        <v>250</v>
+        <v>96</v>
       </c>
       <c r="G127" t="n">
         <v>1</v>
@@ -5196,10 +5166,10 @@
         <v>127</v>
       </c>
       <c r="E128" t="s">
-        <v>251</v>
+        <v>244</v>
       </c>
       <c r="F128" t="s">
-        <v>252</v>
+        <v>245</v>
       </c>
       <c r="G128" t="n">
         <v>2</v>
@@ -5225,10 +5195,10 @@
         <v>128</v>
       </c>
       <c r="E129" t="s">
-        <v>253</v>
+        <v>246</v>
       </c>
       <c r="F129" t="s">
-        <v>254</v>
+        <v>247</v>
       </c>
       <c r="G129" t="n">
         <v>1</v>
@@ -5254,10 +5224,10 @@
         <v>129</v>
       </c>
       <c r="E130" t="s">
-        <v>255</v>
+        <v>248</v>
       </c>
       <c r="F130" t="s">
-        <v>256</v>
+        <v>249</v>
       </c>
       <c r="G130" t="n">
         <v>1</v>
@@ -5283,10 +5253,10 @@
         <v>130</v>
       </c>
       <c r="E131" t="s">
-        <v>257</v>
+        <v>250</v>
       </c>
       <c r="F131" t="s">
-        <v>258</v>
+        <v>251</v>
       </c>
       <c r="G131" t="n">
         <v>1</v>
@@ -5312,10 +5282,10 @@
         <v>131</v>
       </c>
       <c r="E132" t="s">
-        <v>259</v>
+        <v>252</v>
       </c>
       <c r="F132" t="s">
-        <v>260</v>
+        <v>253</v>
       </c>
       <c r="G132" t="n">
         <v>2</v>
@@ -5341,10 +5311,10 @@
         <v>132</v>
       </c>
       <c r="E133" t="s">
-        <v>261</v>
+        <v>254</v>
       </c>
       <c r="F133" t="s">
-        <v>262</v>
+        <v>255</v>
       </c>
       <c r="G133" t="n">
         <v>1</v>
@@ -5370,10 +5340,10 @@
         <v>133</v>
       </c>
       <c r="E134" t="s">
-        <v>263</v>
+        <v>256</v>
       </c>
       <c r="F134" t="s">
-        <v>264</v>
+        <v>257</v>
       </c>
       <c r="G134" t="n">
         <v>1</v>
@@ -5399,10 +5369,10 @@
         <v>134</v>
       </c>
       <c r="E135" t="s">
-        <v>265</v>
+        <v>258</v>
       </c>
       <c r="F135" t="s">
-        <v>266</v>
+        <v>259</v>
       </c>
       <c r="G135" t="n">
         <v>1</v>
@@ -5428,10 +5398,10 @@
         <v>135</v>
       </c>
       <c r="E136" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="F136" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="G136" t="n">
         <v>1</v>
@@ -5457,10 +5427,10 @@
         <v>136</v>
       </c>
       <c r="E137" t="s">
-        <v>267</v>
+        <v>260</v>
       </c>
       <c r="F137" t="s">
-        <v>268</v>
+        <v>261</v>
       </c>
       <c r="G137" t="n">
         <v>2</v>
@@ -5486,10 +5456,10 @@
         <v>137</v>
       </c>
       <c r="E138" t="s">
-        <v>269</v>
+        <v>262</v>
       </c>
       <c r="F138" t="s">
-        <v>270</v>
+        <v>263</v>
       </c>
       <c r="G138" t="n">
         <v>1</v>
@@ -5515,10 +5485,10 @@
         <v>138</v>
       </c>
       <c r="E139" t="s">
-        <v>271</v>
+        <v>264</v>
       </c>
       <c r="F139" t="s">
-        <v>272</v>
+        <v>265</v>
       </c>
       <c r="G139" t="n">
         <v>2</v>
@@ -5544,10 +5514,10 @@
         <v>139</v>
       </c>
       <c r="E140" t="s">
-        <v>273</v>
+        <v>266</v>
       </c>
       <c r="F140" t="s">
-        <v>274</v>
+        <v>267</v>
       </c>
       <c r="G140" t="n">
         <v>1</v>
@@ -5573,10 +5543,10 @@
         <v>140</v>
       </c>
       <c r="E141" t="s">
-        <v>275</v>
+        <v>268</v>
       </c>
       <c r="F141" t="s">
-        <v>276</v>
+        <v>122</v>
       </c>
       <c r="G141" t="n">
         <v>1</v>
@@ -5602,10 +5572,10 @@
         <v>141</v>
       </c>
       <c r="E142" t="s">
-        <v>277</v>
+        <v>269</v>
       </c>
       <c r="F142" t="s">
-        <v>278</v>
+        <v>270</v>
       </c>
       <c r="G142" t="n">
         <v>2</v>
@@ -5631,10 +5601,10 @@
         <v>142</v>
       </c>
       <c r="E143" t="s">
-        <v>279</v>
+        <v>271</v>
       </c>
       <c r="F143" t="s">
-        <v>280</v>
+        <v>272</v>
       </c>
       <c r="G143" t="n">
         <v>1</v>
@@ -5660,10 +5630,10 @@
         <v>143</v>
       </c>
       <c r="E144" t="s">
-        <v>281</v>
+        <v>273</v>
       </c>
       <c r="F144" t="s">
-        <v>282</v>
+        <v>181</v>
       </c>
       <c r="G144" t="n">
         <v>1</v>
@@ -5689,10 +5659,10 @@
         <v>144</v>
       </c>
       <c r="E145" t="s">
-        <v>283</v>
+        <v>274</v>
       </c>
       <c r="F145" t="s">
-        <v>284</v>
+        <v>275</v>
       </c>
       <c r="G145" t="n">
         <v>2</v>
@@ -5718,10 +5688,10 @@
         <v>145</v>
       </c>
       <c r="E146" t="s">
-        <v>285</v>
+        <v>276</v>
       </c>
       <c r="F146" t="s">
-        <v>286</v>
+        <v>277</v>
       </c>
       <c r="G146" t="n">
         <v>1</v>
@@ -5747,10 +5717,10 @@
         <v>146</v>
       </c>
       <c r="E147" t="s">
-        <v>287</v>
+        <v>278</v>
       </c>
       <c r="F147" t="s">
-        <v>288</v>
+        <v>279</v>
       </c>
       <c r="G147" t="n">
         <v>3</v>
@@ -5776,10 +5746,10 @@
         <v>147</v>
       </c>
       <c r="E148" t="s">
-        <v>289</v>
+        <v>280</v>
       </c>
       <c r="F148" t="s">
-        <v>290</v>
+        <v>281</v>
       </c>
       <c r="G148" t="n">
         <v>1</v>
@@ -5805,10 +5775,10 @@
         <v>148</v>
       </c>
       <c r="E149" t="s">
-        <v>291</v>
+        <v>282</v>
       </c>
       <c r="F149" t="s">
-        <v>292</v>
+        <v>283</v>
       </c>
       <c r="G149" t="n">
         <v>2</v>
@@ -5834,10 +5804,10 @@
         <v>149</v>
       </c>
       <c r="E150" t="s">
-        <v>293</v>
+        <v>284</v>
       </c>
       <c r="F150" t="s">
-        <v>294</v>
+        <v>285</v>
       </c>
       <c r="G150" t="n">
         <v>1</v>
@@ -5863,10 +5833,10 @@
         <v>150</v>
       </c>
       <c r="E151" t="s">
-        <v>295</v>
+        <v>286</v>
       </c>
       <c r="F151" t="s">
-        <v>296</v>
+        <v>287</v>
       </c>
       <c r="G151" t="n">
         <v>1</v>
@@ -5892,10 +5862,10 @@
         <v>151</v>
       </c>
       <c r="E152" t="s">
-        <v>297</v>
+        <v>288</v>
       </c>
       <c r="F152" t="s">
-        <v>298</v>
+        <v>289</v>
       </c>
       <c r="G152" t="n">
         <v>1</v>
@@ -5921,10 +5891,10 @@
         <v>152</v>
       </c>
       <c r="E153" t="s">
-        <v>299</v>
+        <v>290</v>
       </c>
       <c r="F153" t="s">
-        <v>300</v>
+        <v>291</v>
       </c>
       <c r="G153" t="n">
         <v>2</v>
@@ -5950,10 +5920,10 @@
         <v>153</v>
       </c>
       <c r="E154" t="s">
-        <v>301</v>
+        <v>292</v>
       </c>
       <c r="F154" t="s">
-        <v>302</v>
+        <v>293</v>
       </c>
       <c r="G154" t="n">
         <v>1</v>
@@ -5979,10 +5949,10 @@
         <v>154</v>
       </c>
       <c r="E155" t="s">
-        <v>303</v>
+        <v>294</v>
       </c>
       <c r="F155" t="s">
-        <v>304</v>
+        <v>295</v>
       </c>
       <c r="G155" t="n">
         <v>2</v>
@@ -6008,10 +5978,10 @@
         <v>155</v>
       </c>
       <c r="E156" t="s">
-        <v>305</v>
+        <v>296</v>
       </c>
       <c r="F156" t="s">
-        <v>306</v>
+        <v>297</v>
       </c>
       <c r="G156" t="n">
         <v>1</v>
@@ -6037,10 +6007,10 @@
         <v>156</v>
       </c>
       <c r="E157" t="s">
-        <v>307</v>
+        <v>298</v>
       </c>
       <c r="F157" t="s">
-        <v>308</v>
+        <v>299</v>
       </c>
       <c r="G157" t="n">
         <v>2</v>
@@ -6066,10 +6036,10 @@
         <v>157</v>
       </c>
       <c r="E158" t="s">
-        <v>309</v>
+        <v>300</v>
       </c>
       <c r="F158" t="s">
-        <v>310</v>
+        <v>301</v>
       </c>
       <c r="G158" t="n">
         <v>1</v>
@@ -6095,10 +6065,10 @@
         <v>158</v>
       </c>
       <c r="E159" t="s">
-        <v>311</v>
+        <v>302</v>
       </c>
       <c r="F159" t="s">
-        <v>312</v>
+        <v>303</v>
       </c>
       <c r="G159" t="n">
         <v>2</v>
@@ -6124,10 +6094,10 @@
         <v>159</v>
       </c>
       <c r="E160" t="s">
-        <v>313</v>
+        <v>304</v>
       </c>
       <c r="F160" t="s">
-        <v>314</v>
+        <v>305</v>
       </c>
       <c r="G160" t="n">
         <v>1</v>
@@ -6153,10 +6123,10 @@
         <v>160</v>
       </c>
       <c r="E161" t="s">
-        <v>315</v>
+        <v>306</v>
       </c>
       <c r="F161" t="s">
-        <v>316</v>
+        <v>307</v>
       </c>
       <c r="G161" t="n">
         <v>1</v>
@@ -6182,10 +6152,10 @@
         <v>161</v>
       </c>
       <c r="E162" t="s">
-        <v>317</v>
+        <v>308</v>
       </c>
       <c r="F162" t="s">
-        <v>318</v>
+        <v>309</v>
       </c>
       <c r="G162" t="n">
         <v>1</v>
@@ -6211,10 +6181,10 @@
         <v>162</v>
       </c>
       <c r="E163" t="s">
-        <v>319</v>
+        <v>310</v>
       </c>
       <c r="F163" t="s">
-        <v>320</v>
+        <v>165</v>
       </c>
       <c r="G163" t="n">
         <v>1</v>
@@ -6240,10 +6210,10 @@
         <v>163</v>
       </c>
       <c r="E164" t="s">
-        <v>321</v>
+        <v>311</v>
       </c>
       <c r="F164" t="s">
-        <v>322</v>
+        <v>312</v>
       </c>
       <c r="G164" t="n">
         <v>2</v>
@@ -6269,10 +6239,10 @@
         <v>164</v>
       </c>
       <c r="E165" t="s">
-        <v>323</v>
+        <v>313</v>
       </c>
       <c r="F165" t="s">
-        <v>324</v>
+        <v>314</v>
       </c>
       <c r="G165" t="n">
         <v>1</v>
@@ -6298,10 +6268,10 @@
         <v>165</v>
       </c>
       <c r="E166" t="s">
-        <v>325</v>
+        <v>315</v>
       </c>
       <c r="F166" t="s">
-        <v>326</v>
+        <v>316</v>
       </c>
       <c r="G166" t="n">
         <v>2</v>
@@ -6327,10 +6297,10 @@
         <v>166</v>
       </c>
       <c r="E167" t="s">
-        <v>327</v>
+        <v>317</v>
       </c>
       <c r="F167" t="s">
-        <v>328</v>
+        <v>318</v>
       </c>
       <c r="G167" t="n">
         <v>1</v>
@@ -6356,10 +6326,10 @@
         <v>167</v>
       </c>
       <c r="E168" t="s">
-        <v>329</v>
+        <v>319</v>
       </c>
       <c r="F168" t="s">
-        <v>330</v>
+        <v>320</v>
       </c>
       <c r="G168" t="n">
         <v>1</v>
@@ -6385,10 +6355,10 @@
         <v>168</v>
       </c>
       <c r="E169" t="s">
-        <v>331</v>
+        <v>321</v>
       </c>
       <c r="F169" t="s">
-        <v>332</v>
+        <v>322</v>
       </c>
       <c r="G169" t="n">
         <v>1</v>
@@ -6414,10 +6384,10 @@
         <v>169</v>
       </c>
       <c r="E170" t="s">
-        <v>333</v>
+        <v>323</v>
       </c>
       <c r="F170" t="s">
-        <v>334</v>
+        <v>324</v>
       </c>
       <c r="G170" t="n">
         <v>2</v>
@@ -6443,10 +6413,10 @@
         <v>170</v>
       </c>
       <c r="E171" t="s">
-        <v>335</v>
+        <v>325</v>
       </c>
       <c r="F171" t="s">
-        <v>336</v>
+        <v>326</v>
       </c>
       <c r="G171" t="n">
         <v>1</v>
@@ -6472,10 +6442,10 @@
         <v>171</v>
       </c>
       <c r="E172" t="s">
-        <v>337</v>
+        <v>327</v>
       </c>
       <c r="F172" t="s">
-        <v>338</v>
+        <v>328</v>
       </c>
       <c r="G172" t="n">
         <v>2</v>
@@ -6501,10 +6471,10 @@
         <v>172</v>
       </c>
       <c r="E173" t="s">
-        <v>339</v>
+        <v>329</v>
       </c>
       <c r="F173" t="s">
-        <v>340</v>
+        <v>330</v>
       </c>
       <c r="G173" t="n">
         <v>1</v>
@@ -6530,10 +6500,10 @@
         <v>173</v>
       </c>
       <c r="E174" t="s">
-        <v>341</v>
+        <v>331</v>
       </c>
       <c r="F174" t="s">
-        <v>342</v>
+        <v>332</v>
       </c>
       <c r="G174" t="n">
         <v>2</v>
@@ -6559,10 +6529,10 @@
         <v>174</v>
       </c>
       <c r="E175" t="s">
-        <v>343</v>
+        <v>333</v>
       </c>
       <c r="F175" t="s">
-        <v>344</v>
+        <v>334</v>
       </c>
       <c r="G175" t="n">
         <v>1</v>
@@ -6588,10 +6558,10 @@
         <v>175</v>
       </c>
       <c r="E176" t="s">
-        <v>345</v>
+        <v>335</v>
       </c>
       <c r="F176" t="s">
-        <v>346</v>
+        <v>336</v>
       </c>
       <c r="G176" t="n">
         <v>1</v>
@@ -6617,10 +6587,10 @@
         <v>176</v>
       </c>
       <c r="E177" t="s">
-        <v>347</v>
+        <v>337</v>
       </c>
       <c r="F177" t="s">
-        <v>348</v>
+        <v>338</v>
       </c>
       <c r="G177" t="n">
         <v>1</v>
@@ -6646,10 +6616,10 @@
         <v>177</v>
       </c>
       <c r="E178" t="s">
-        <v>349</v>
+        <v>339</v>
       </c>
       <c r="F178" t="s">
-        <v>350</v>
+        <v>340</v>
       </c>
       <c r="G178" t="n">
         <v>2</v>
@@ -6675,10 +6645,10 @@
         <v>178</v>
       </c>
       <c r="E179" t="s">
-        <v>351</v>
+        <v>341</v>
       </c>
       <c r="F179" t="s">
-        <v>352</v>
+        <v>342</v>
       </c>
       <c r="G179" t="n">
         <v>1</v>
@@ -6704,10 +6674,10 @@
         <v>179</v>
       </c>
       <c r="E180" t="s">
-        <v>353</v>
+        <v>343</v>
       </c>
       <c r="F180" t="s">
-        <v>354</v>
+        <v>344</v>
       </c>
       <c r="G180" t="n">
         <v>2</v>
@@ -6733,10 +6703,10 @@
         <v>180</v>
       </c>
       <c r="E181" t="s">
-        <v>355</v>
+        <v>345</v>
       </c>
       <c r="F181" t="s">
-        <v>356</v>
+        <v>346</v>
       </c>
       <c r="G181" t="n">
         <v>1</v>
@@ -6762,10 +6732,10 @@
         <v>181</v>
       </c>
       <c r="E182" t="s">
-        <v>357</v>
+        <v>347</v>
       </c>
       <c r="F182" t="s">
-        <v>358</v>
+        <v>348</v>
       </c>
       <c r="G182" t="n">
         <v>1</v>
@@ -6791,10 +6761,10 @@
         <v>182</v>
       </c>
       <c r="E183" t="s">
-        <v>359</v>
+        <v>349</v>
       </c>
       <c r="F183" t="s">
-        <v>360</v>
+        <v>350</v>
       </c>
       <c r="G183" t="n">
         <v>1</v>
@@ -6820,10 +6790,10 @@
         <v>183</v>
       </c>
       <c r="E184" t="s">
-        <v>361</v>
+        <v>351</v>
       </c>
       <c r="F184" t="s">
-        <v>362</v>
+        <v>352</v>
       </c>
       <c r="G184" t="n">
         <v>2</v>
@@ -6849,10 +6819,10 @@
         <v>184</v>
       </c>
       <c r="E185" t="s">
-        <v>363</v>
+        <v>353</v>
       </c>
       <c r="F185" t="s">
-        <v>364</v>
+        <v>354</v>
       </c>
       <c r="G185" t="n">
         <v>1</v>
@@ -6878,10 +6848,10 @@
         <v>185</v>
       </c>
       <c r="E186" t="s">
-        <v>365</v>
+        <v>355</v>
       </c>
       <c r="F186" t="s">
-        <v>366</v>
+        <v>356</v>
       </c>
       <c r="G186" t="n">
         <v>2</v>
@@ -6907,10 +6877,10 @@
         <v>186</v>
       </c>
       <c r="E187" t="s">
-        <v>367</v>
+        <v>357</v>
       </c>
       <c r="F187" t="s">
-        <v>368</v>
+        <v>358</v>
       </c>
       <c r="G187" t="n">
         <v>1</v>
@@ -6936,10 +6906,10 @@
         <v>187</v>
       </c>
       <c r="E188" t="s">
-        <v>369</v>
+        <v>359</v>
       </c>
       <c r="F188" t="s">
-        <v>370</v>
+        <v>360</v>
       </c>
       <c r="G188" t="n">
         <v>1</v>
@@ -6965,10 +6935,10 @@
         <v>188</v>
       </c>
       <c r="E189" t="s">
-        <v>371</v>
+        <v>361</v>
       </c>
       <c r="F189" t="s">
-        <v>372</v>
+        <v>362</v>
       </c>
       <c r="G189" t="n">
         <v>1</v>
@@ -6994,10 +6964,10 @@
         <v>189</v>
       </c>
       <c r="E190" t="s">
-        <v>373</v>
+        <v>363</v>
       </c>
       <c r="F190" t="s">
-        <v>374</v>
+        <v>364</v>
       </c>
       <c r="G190" t="n">
         <v>1</v>
@@ -7023,10 +6993,10 @@
         <v>190</v>
       </c>
       <c r="E191" t="s">
-        <v>375</v>
+        <v>365</v>
       </c>
       <c r="F191" t="s">
-        <v>376</v>
+        <v>366</v>
       </c>
       <c r="G191" t="n">
         <v>3</v>

--- a/xlsx/一院制_intext.xlsx
+++ b/xlsx/一院制_intext.xlsx
@@ -29,7 +29,7 @@
     <t>立法機構</t>
   </si>
   <si>
-    <t>政策_政策_美國_一院制</t>
+    <t>体育运动_体育运动_伊朗_一院制</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%AD%B0%E9%99%A2</t>
